--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\create Y\com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\odoo\custom_addons\com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B506857-2A2A-49F6-A768-B9952721A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB9876-9523-40C7-8B0D-DB8228B3378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3900" windowWidth="27150" windowHeight="16035" xr2:uid="{FC0CED0A-9FCE-40DD-BE2D-447C6CC3E712}"/>
+    <workbookView xWindow="14796" yWindow="7548" windowWidth="30612" windowHeight="17004" xr2:uid="{FC0CED0A-9FCE-40DD-BE2D-447C6CC3E712}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -318,75 +315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFBDC7EB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBDC7EB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBDC7EB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBDC7EB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFBDC7EB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBDC7EB"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBDC7EB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBDC7EB"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBDC7EB"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -557,35 +485,114 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7D8AB9"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF7D8AB9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7D8AB9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7D8AB9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7D8AB9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -599,7 +606,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -607,27 +614,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,74 +663,70 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +741,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,1840 +1086,1840 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O36"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44">
         <v>100</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>60</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="46">
         <v>20</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="46">
         <v>100</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="46">
         <v>15</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="33">
         <v>19591959</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="34">
         <v>23351606.629999999</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="34">
         <v>340116.97</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="34">
         <v>905066.28</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="34">
         <v>1183687.8500000001</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="35">
         <v>415908.174</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="19">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="20">
         <v>1.5990000000000002E-3</v>
       </c>
-      <c r="O3" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="18">
+      <c r="O3" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="21">
         <v>2E-3</v>
       </c>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="16">
         <v>1938784</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="17">
         <v>2507130.58</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="17">
         <v>906.39</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="17">
         <v>72053.38</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="17">
         <v>134775</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="18">
         <v>12052.344999999999</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="19">
         <v>1.15E-2</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O4" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="28">
+      <c r="O4" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="21">
         <v>1.03E-2</v>
       </c>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <v>22755058</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="17">
         <v>17154613.550000001</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="17">
         <v>219251.72</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="17">
         <v>26162.53</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="17">
         <v>950479.86</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="18">
         <v>355339.39600000001</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="19">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="20">
         <v>1.9E-3</v>
       </c>
-      <c r="O5" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="28">
+      <c r="O5" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="21">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="16">
         <v>2686986</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="17">
         <v>3261158.66</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="17">
         <v>11393.01</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="17">
         <v>69063.679999999993</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="17">
         <v>215080.68</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="18">
         <v>10297.922</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="19">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="20">
         <v>1.9E-3</v>
       </c>
-      <c r="O6" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P6" s="28">
+      <c r="O6" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="21">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="16">
         <v>9091366</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="17">
         <v>8996043.75</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="17">
         <v>152767.69</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="17">
         <v>7136.64</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="17">
         <v>634099.98</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="18">
         <v>280739.12400000001</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="19">
         <v>1.34E-2</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="20">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O7" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="28">
+      <c r="O7" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="21">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="16">
         <v>6743579</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="17">
         <v>6642878.6900000004</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="17">
         <v>3409.33</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="17">
         <v>65470.52</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="17">
         <v>407617.55</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="18">
         <v>91207.59</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O8" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P8" s="28">
+      <c r="O8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="21">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="16">
         <v>15993683</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="17">
         <v>16522919.58</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="17">
         <v>146350.9</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="17">
         <v>167073.5</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="17">
         <v>4292</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="18">
         <v>320983.74400000001</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="19">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="20">
         <v>2.6650000000000003E-3</v>
       </c>
-      <c r="O9" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P9" s="28">
+      <c r="O9" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="16">
         <v>3868280</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="17">
         <v>4053690.1</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="17">
         <v>30464.93</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="17">
         <v>67225.78</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="17">
         <v>210065</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="18">
         <v>37777.313999999998</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="19">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="20">
         <v>1.5990000000000002E-3</v>
       </c>
-      <c r="O10" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="28">
+      <c r="O10" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P10" s="21">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="16">
         <v>19794522</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="17">
         <v>20005520.420000002</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="17">
         <v>188212.22</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="17">
         <v>223063.28</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="17">
         <v>6860</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="18">
         <v>140024.65</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="19">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O11" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P11" s="28">
+      <c r="O11" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="21">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="16">
         <v>21909086</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="17">
         <v>22951289.809999999</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="17">
         <v>208685.61</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="17">
         <v>7435.1</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="17">
         <v>16540</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="18">
         <v>408158.78700000001</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="19">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O12" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P12" s="28">
+      <c r="O12" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="21">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="16">
         <v>17009357</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="17">
         <v>17127476.359999999</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="17">
         <v>124955.03</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="17">
         <v>190824.85</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="17">
         <v>13718</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="18">
         <v>129564.88499999999</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="19">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O13" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P13" s="28">
+      <c r="O13" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="21">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="16">
         <v>24798734</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="17">
         <v>26507855.93</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="17">
         <v>93468.95</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="17">
         <v>26600.69</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="17">
         <v>475842</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="18">
         <v>207175.95800000001</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="19">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O14" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="28">
+      <c r="O14" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="16">
         <v>6856551</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="17">
         <v>6716259.54</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="17">
         <v>83542.95</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="17">
         <v>134250.79999999999</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="17">
         <v>226615</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="18">
         <v>262618.62</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="19">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="20">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O15" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="28">
+      <c r="O15" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="21">
         <v>1.23E-2</v>
       </c>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="16">
         <v>30621195</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="17">
         <v>32052691.809999999</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="17">
         <v>186262.07</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="17">
         <v>24274.43</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="17">
         <v>1244568</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="18">
         <v>332994.59499999997</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="19">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="20">
         <v>2.1320000000000002E-3</v>
       </c>
-      <c r="O16" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="28">
+      <c r="O16" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="21">
         <v>1E-3</v>
       </c>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="16">
         <v>17188836</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="17">
         <v>17428018.870000001</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="17">
         <v>116216.48</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="17">
         <v>259230.85</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="17">
         <v>431095</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="18">
         <v>141745.95499999999</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="20">
         <v>2.6650000000000003E-3</v>
       </c>
-      <c r="O17" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="28">
+      <c r="O17" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="21">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="16">
         <v>1219932</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="17">
         <v>1151560.95</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="17">
         <v>31147.97</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="17">
         <v>55662.48</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="17">
         <v>8988</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="18">
         <v>39011.692999999999</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="19">
         <v>8.1000000000000013E-3</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="20">
         <v>1.5990000000000002E-3</v>
       </c>
-      <c r="O18" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P18" s="28">
+      <c r="O18" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P18" s="21">
         <v>1.55E-2</v>
       </c>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="25">
         <v>3312987</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="26">
         <v>3213559.51</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="26">
         <v>28816.78</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="26">
         <v>3780.6</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="26">
         <v>205547</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="27">
         <v>68784.183000000005</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="28">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="29">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O19" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="P19" s="37">
+      <c r="O19" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="P19" s="30">
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="6">
         <v>21379072</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="7">
         <v>22377804.719999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="7">
         <v>278296.7</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="7">
         <v>452006.75</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="7">
         <v>1129236.25</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="8">
         <v>109023.978</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="9">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="10">
         <v>1.5989999999999999E-3</v>
       </c>
-      <c r="O20" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="O20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="P20" s="11">
         <v>2E-3</v>
       </c>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="16">
         <v>2100233</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="17">
         <v>2296569.0099999998</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="17">
         <v>2450.86</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="17">
         <v>22035.74</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="17">
         <v>112435</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="18">
         <v>16538.763999999999</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="19">
         <v>1.15E-2</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O21" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P21" s="28">
+      <c r="O21" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P21" s="21">
         <v>1.03E-2</v>
       </c>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="16">
         <v>6000000</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="17">
         <v>8754757.2799999993</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="17">
         <v>2613.98</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="17">
         <v>11687.46</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="17">
         <v>881288</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="18">
         <v>4645.74</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="19">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="20">
         <v>1.9E-3</v>
       </c>
-      <c r="O22" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P22" s="28">
+      <c r="O22" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P22" s="21">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="16">
         <v>3232951</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="17">
         <v>3156377.33</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="17">
         <v>8713.2800000000007</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="17">
         <v>96077.08</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="17">
         <v>193900</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="18">
         <v>22909.393</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="19">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="20">
         <v>1.9E-3</v>
       </c>
-      <c r="O23" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P23" s="28">
+      <c r="O23" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P23" s="21">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="16">
         <v>8508152</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="17">
         <v>8782254.2200000007</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="17">
         <v>114550.21</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="17">
         <v>215004.99</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="17">
         <v>560636.86</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="18">
         <v>17399.486000000001</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="19">
         <v>1.34E-2</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="20">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O24" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P24" s="28">
+      <c r="O24" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P24" s="21">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="16">
         <v>6150356</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="17">
         <v>6331291.4800000004</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="17">
         <v>848.46</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="17">
         <v>55561.33</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="17">
         <v>357491.39</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="18">
         <v>7466.04</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O25" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P25" s="28">
+      <c r="O25" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P25" s="21">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="16">
         <v>15306555</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="17">
         <v>15570538.48</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="17">
         <v>175447.9</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="17">
         <v>272389.03000000003</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="17">
         <v>787796.12</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="18">
         <v>30519.866999999998</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="19">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="20">
         <v>2.6650000000000003E-3</v>
       </c>
-      <c r="O26" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P26" s="28">
+      <c r="O26" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P26" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="16">
         <v>3762746</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="17">
         <v>3787951.38</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="17">
         <v>46493.04</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="17">
         <v>76596.06</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="17">
         <v>218845.31</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="18">
         <v>7222.8</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="19">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="20">
         <v>1.5990000000000002E-3</v>
       </c>
-      <c r="O27" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P27" s="28">
+      <c r="O27" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P27" s="21">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="16">
         <v>18026002</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="17">
         <v>19295921.5</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="17">
         <v>173219.16</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="17">
         <v>10841.97</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="17">
         <v>918662.31</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="18">
         <v>19952.25</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="19">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O28" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P28" s="28">
+      <c r="O28" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P28" s="21">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="16">
         <v>21282486</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="17">
         <v>21928287.18</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="17">
         <v>245143.75</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="17">
         <v>258047.3</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="17">
         <v>1075360.1000000001</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="18">
         <v>30274.82</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="19">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O29" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P29" s="28">
+      <c r="O29" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P29" s="21">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="16">
         <v>16421348</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="17">
         <v>16592421.289999999</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="17">
         <v>166414.34</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="17">
         <v>21085.25</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="17">
         <v>775214.89</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="18">
         <v>24702.48</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="19">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O30" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P30" s="28">
+      <c r="O30" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P30" s="21">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="16">
         <v>24394317</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="17">
         <v>24732366.73</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="17">
         <v>138177.79</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="17">
         <v>19775.87</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="17">
         <v>949887.36</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="18">
         <v>20745.919999999998</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="19">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="20">
         <v>1.0660000000000001E-3</v>
       </c>
-      <c r="O31" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P31" s="28">
+      <c r="O31" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P31" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="16">
         <v>7182566</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="17">
         <v>6727481.3700000001</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="17">
         <v>85377.279999999999</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="17">
         <v>167922.88</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="17">
         <v>464714.09</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="18">
         <v>54583.16</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="19">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="20">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O32" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P32" s="28">
+      <c r="O32" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P32" s="21">
         <v>1.23E-2</v>
       </c>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="16">
         <v>28067946</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="17">
         <v>30236809.890000001</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="17">
         <v>235038.9</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="17">
         <v>405668.69</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="17">
         <v>1233206.29</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="18">
         <v>30542.98</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="19">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="20">
         <v>2.1320000000000002E-3</v>
       </c>
-      <c r="O33" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P33" s="28">
+      <c r="O33" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P33" s="21">
         <v>1E-3</v>
       </c>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="16">
         <v>15369836</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="17">
         <v>16641580.289999999</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="17">
         <v>146123.65</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="17">
         <v>275905.56</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="17">
         <v>824999.73</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="18">
         <v>23503.42</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="20">
         <v>2.6650000000000003E-3</v>
       </c>
-      <c r="O34" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P34" s="28">
+      <c r="O34" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P34" s="21">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="16">
         <v>1092201</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="17">
         <v>1178225.1299999999</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="17">
         <v>14922.41</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17">
         <v>64147.12</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="18">
         <v>4881.04</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="19">
         <v>8.1000000000000013E-3</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="20">
         <v>1.5990000000000002E-3</v>
       </c>
-      <c r="O35" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="P35" s="28">
+      <c r="O35" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="P35" s="21">
         <v>1.55E-2</v>
       </c>
-      <c r="Q35" s="19"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="25">
         <v>2861224</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="26">
         <v>3227731.96</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="26">
         <v>45634.55</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="26">
         <v>68818.87</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="26">
         <v>189660.15</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="27">
         <v>5190.9679999999998</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="28">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="29">
         <v>3.1980000000000003E-3</v>
       </c>
-      <c r="O36" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="P36" s="37">
+      <c r="O36" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="P36" s="30">
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="Q36" s="19"/>
+      <c r="Q36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
